--- a/data/trans_camb/IP16B10-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B10-Edad-trans_camb.xlsx
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-25,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -767,22 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-100,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-25,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-47,06</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-100,0; 0,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 0,0</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-25,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -843,22 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-25,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-47,06%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-100,0; 0,0</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 0,0</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-25,51</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-25,51</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-100,0</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-47,06</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-25,51%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-25,51%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-47,06%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B10-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B10-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>-51,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-47,06</t>
+          <t>-32,52</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-51,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-47,06%</t>
+          <t>-32,52%</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,27 +913,27 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-25,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-25,51</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -989,27 +989,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-25,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-25,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-15,93</t>
+          <t>-34,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-33,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,82</t>
+          <t>-34,25</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-15,41</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-66,74; 0,0</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1122,17 +1122,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
           <t>-100,0; 0,0</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-37,2; 0,0</t>
-        </is>
-      </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-74,19; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-15,93%</t>
+          <t>-34,25%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-33,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-8,82%</t>
+          <t>-34,25%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,41%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-66,74; 0,0</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1198,28 +1198,192 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
           <t>-100,0; 0,0</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-37,2; 0,0</t>
-        </is>
-      </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-74,19; 0,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-15,93</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-33,44</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-8,82</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-15,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-67,45; 0,0</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 0,0</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-37,88; 0,0</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-66,95; 0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-15,93%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-33,44%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-8,82%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-15,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-67,45; 0,0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 0,0</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-37,88; 0,0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-66,95; 0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP16B10-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B10-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-67,45; 0,0</t>
+          <t>-66,67; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-37,88; 0,0</t>
+          <t>-39,02; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-66,95; 0,0</t>
+          <t>-75,39; 0,0</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-67,45; 0,0</t>
+          <t>-66,67; 0,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-37,88; 0,0</t>
+          <t>-39,02; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-66,95; 0,0</t>
+          <t>-75,39; 0,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B10-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B10-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -606,17 +606,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>—</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -682,17 +682,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -762,17 +762,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>-51,29</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-51,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -838,17 +838,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>-51,29%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-51,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1069,17 +1069,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-34,25</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1107,17 +1107,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-100,0; 0,0</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>-34,25%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>-100,0; 0,0</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-33,44</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>-15,93</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-33,44</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-66,67; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,74; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 0,0</t>
+          <t>-37,2; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-75,39; 0,0</t>
+          <t>-74,19; 0,0</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-33,44%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>-15,93%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-33,44%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-66,67; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,74; 0,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 0,0</t>
+          <t>-37,2; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-75,39; 0,0</t>
+          <t>-74,19; 0,0</t>
         </is>
       </c>
     </row>
